--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays_add.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays_add.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\openl2\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A6D69E-C322-4595-8FE3-3DA02EC0023A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABACFA3F-ABFE-469E-97E1-4BE72E798EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14145" yWindow="855" windowWidth="13725" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="add" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="264">
   <si>
     <t>_res_</t>
   </si>
@@ -62,9 +62,6 @@
     <t>return add(arr, arr2);</t>
   </si>
   <si>
-    <t>return add(arr, ind, el);</t>
-  </si>
-  <si>
     <t>Method byte[] addbyteArr(byte[] arr, byte[] arr2)</t>
   </si>
   <si>
@@ -563,18 +560,12 @@
     <t>2,1</t>
   </si>
   <si>
-    <t>1,2,3,4,0,a</t>
-  </si>
-  <si>
     <t>1,2,3,4,0,1</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>1,2,3,4,0,d</t>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -764,9 +755,6 @@
     <t>Method char[] addcharEls2(char[] arr, char el, char el2)</t>
   </si>
   <si>
-    <t>Test addcharEls2 addcharTest5</t>
-  </si>
-  <si>
     <t>Method Character[] addCharacterEls2(Character[] arr, Character el, Character el2)</t>
   </si>
   <si>
@@ -803,17 +791,35 @@
     <t>1,2,3,4,0,2,7</t>
   </si>
   <si>
+    <t>1,2,3,4,0,0,0</t>
+  </si>
+  <si>
+    <t>0, 2</t>
+  </si>
+  <si>
+    <t>1,2,3,4,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1,2,3,4,1,a</t>
+  </si>
+  <si>
+    <t>1,2,3,4,1,d</t>
+  </si>
+  <si>
+    <t>return addElement(arr, ind, el);</t>
+  </si>
+  <si>
     <t>0,2</t>
-  </si>
-  <si>
-    <t>1,2,3,4,0,0,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,6 +841,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -961,7 +974,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -979,6 +992,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,8 +1017,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 2" xfId="2" xr:uid="{196F2A69-7B4F-4BF0-98F7-DCE63C71D8DB}"/>
@@ -1343,50 +1363,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:U310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H196" workbookViewId="0">
-      <selection activeCell="Q212" sqref="Q212"/>
+    <sheetView tabSelected="1" topLeftCell="D137" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="82.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="82.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="23" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="2"/>
-    <col min="16" max="16" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.21875" style="2" customWidth="1"/>
-    <col min="18" max="20" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="2"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="2" customWidth="1"/>
+    <col min="18" max="20" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="H3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="H3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1400,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1435,9 +1455,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>2</v>
@@ -1458,10 +1478,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1489,7 @@
       <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="19">
         <v>2</v>
       </c>
       <c r="H7" s="5"/>
@@ -1480,10 +1500,10 @@
         <v>2</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1497,42 +1517,42 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="H10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="M10" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="H10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="M10" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>0</v>
@@ -1541,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>7</v>
@@ -1556,63 +1576,63 @@
         <v>7</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="H13" s="5" t="s">
         <v>2</v>
       </c>
@@ -1623,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>2</v>
@@ -1635,16 +1655,16 @@
         <v>7</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
         <v>2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="19">
         <v>2</v>
       </c>
       <c r="H14" s="5"/>
@@ -1655,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16">
@@ -1665,12 +1685,12 @@
         <v>2</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>2</v>
@@ -1685,7 +1705,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>2</v>
@@ -1693,31 +1713,31 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="H19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="H19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1731,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
@@ -1766,9 +1786,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>2</v>
@@ -1789,10 +1809,10 @@
         <v>2</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1811,65 +1831,65 @@
         <v>2</v>
       </c>
       <c r="K23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>4</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5">
-        <v>2</v>
-      </c>
-      <c r="J24" s="5">
-        <v>4</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="H26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="M26" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="H26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="M26" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>0</v>
@@ -1878,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>7</v>
@@ -1893,15 +1913,15 @@
         <v>7</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P27" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>4</v>
@@ -1916,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>8</v>
@@ -1931,24 +1951,24 @@
         <v>8</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P28" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>2</v>
@@ -1960,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>2</v>
@@ -1972,10 +1992,10 @@
         <v>7</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D30" s="5"/>
       <c r="E30" s="5">
         <v>2</v>
@@ -1991,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M30" s="16"/>
       <c r="N30" s="16">
@@ -2001,40 +2021,32 @@
         <v>2</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="F31" s="5"/>
       <c r="H31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2044,7 +2056,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2053,23 +2065,23 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="H35" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="H35" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -2083,19 +2095,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J36" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D37" s="5" t="s">
         <v>4</v>
       </c>
@@ -2118,9 +2130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>2</v>
@@ -2141,10 +2153,10 @@
         <v>2</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
@@ -2163,10 +2175,10 @@
         <v>2</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D40" s="5" t="s">
         <v>2</v>
       </c>
@@ -2180,42 +2192,42 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="20" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="H42" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="22"/>
-      <c r="H42" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="19"/>
-      <c r="M42" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="26"/>
+      <c r="M42" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>0</v>
@@ -2224,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>7</v>
@@ -2239,15 +2251,15 @@
         <v>7</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P43" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>4</v>
@@ -2262,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>8</v>
@@ -2277,24 +2289,24 @@
         <v>8</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P44" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>2</v>
@@ -2306,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M45" s="16" t="s">
         <v>2</v>
@@ -2318,10 +2330,10 @@
         <v>7</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5">
@@ -2338,7 +2350,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M46" s="16"/>
       <c r="N46" s="16">
@@ -2348,12 +2360,12 @@
         <v>2</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>2</v>
@@ -2368,7 +2380,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>2</v>
@@ -2376,12 +2388,12 @@
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
       <c r="P47" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2391,7 +2403,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2401,26 +2413,26 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="H51" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="H51" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="19"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
@@ -2434,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J52" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D53" s="5" t="s">
         <v>4</v>
       </c>
@@ -2469,9 +2481,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>2</v>
@@ -2492,10 +2504,10 @@
         <v>2</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>12</v>
       </c>
@@ -2514,65 +2526,65 @@
         <v>2</v>
       </c>
       <c r="K55" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5">
+        <v>2</v>
+      </c>
+      <c r="J56" s="5">
+        <v>4</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D56" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1</v>
-      </c>
-      <c r="I56" s="5">
-        <v>2</v>
-      </c>
-      <c r="J56" s="5">
-        <v>4</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="20" t="s">
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
+      <c r="H58" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="22"/>
-      <c r="H58" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="19"/>
-      <c r="M58" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="26"/>
+      <c r="M58" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D59" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>0</v>
@@ -2581,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>7</v>
@@ -2596,15 +2608,15 @@
         <v>7</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P59" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>4</v>
@@ -2619,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>8</v>
@@ -2634,24 +2646,24 @@
         <v>8</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P60" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>2</v>
@@ -2663,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M61" s="16" t="s">
         <v>2</v>
@@ -2675,10 +2687,10 @@
         <v>7</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D62" s="5"/>
       <c r="E62" s="5">
         <v>2</v>
@@ -2694,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M62" s="16"/>
       <c r="N62" s="16">
@@ -2704,59 +2716,51 @@
         <v>2</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="F63" s="5"/>
       <c r="H63" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P63" s="16"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="E67" s="28"/>
+      <c r="F67" s="29"/>
+      <c r="H67" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E67" s="21"/>
-      <c r="F67" s="22"/>
-      <c r="H67" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="19"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="26"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
@@ -2770,19 +2774,19 @@
         <v>0</v>
       </c>
       <c r="H68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J68" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D69" s="7" t="s">
         <v>4</v>
       </c>
@@ -2805,9 +2809,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>2</v>
@@ -2828,10 +2832,10 @@
         <v>2</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>12</v>
       </c>
@@ -2850,10 +2854,10 @@
         <v>2</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D72" s="7" t="s">
         <v>2</v>
       </c>
@@ -2867,42 +2871,42 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="20" t="s">
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
+      <c r="H74" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="21"/>
-      <c r="F74" s="22"/>
-      <c r="H74" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="19"/>
-      <c r="M74" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="26"/>
+      <c r="M74" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D75" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>0</v>
@@ -2911,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>7</v>
@@ -2926,15 +2930,15 @@
         <v>7</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P75" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>4</v>
@@ -2949,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>8</v>
@@ -2964,24 +2968,24 @@
         <v>8</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P76" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>2</v>
@@ -2993,7 +2997,7 @@
         <v>7</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M77" s="16" t="s">
         <v>2</v>
@@ -3005,16 +3009,16 @@
         <v>7</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7">
         <v>2</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="19">
         <v>2</v>
       </c>
       <c r="H78" s="7"/>
@@ -3025,7 +3029,7 @@
         <v>2</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M78" s="16"/>
       <c r="N78" s="16">
@@ -3035,12 +3039,12 @@
         <v>2</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>2</v>
@@ -3055,7 +3059,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M79" s="16" t="s">
         <v>2</v>
@@ -3063,12 +3067,12 @@
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
       <c r="P79" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3078,7 +3082,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3088,26 +3092,26 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="E83" s="28"/>
+      <c r="F83" s="29"/>
+      <c r="H83" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E83" s="21"/>
-      <c r="F83" s="22"/>
-      <c r="H83" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="19"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="26"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
@@ -3121,19 +3125,19 @@
         <v>0</v>
       </c>
       <c r="H84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I84" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J84" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D85" s="7" t="s">
         <v>4</v>
       </c>
@@ -3156,9 +3160,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>2</v>
@@ -3179,10 +3183,10 @@
         <v>2</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>12</v>
       </c>
@@ -3201,65 +3205,65 @@
         <v>2</v>
       </c>
       <c r="K87" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D88" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E88" s="7">
+        <v>4</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H88" s="7">
+        <v>1</v>
+      </c>
+      <c r="I88" s="7">
+        <v>2</v>
+      </c>
+      <c r="J88" s="7">
+        <v>4</v>
+      </c>
+      <c r="K88" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D88" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="7">
-        <v>4</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H88" s="7">
-        <v>1</v>
-      </c>
-      <c r="I88" s="7">
-        <v>2</v>
-      </c>
-      <c r="J88" s="7">
-        <v>4</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="20" t="s">
+      <c r="E90" s="28"/>
+      <c r="F90" s="29"/>
+      <c r="H90" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E90" s="21"/>
-      <c r="F90" s="22"/>
-      <c r="H90" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="19"/>
-      <c r="M90" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="26"/>
+      <c r="M90" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="N90" s="31"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="31"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D91" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>0</v>
@@ -3268,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>7</v>
@@ -3283,15 +3287,15 @@
         <v>7</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P91" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>4</v>
@@ -3306,7 +3310,7 @@
         <v>4</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>8</v>
@@ -3321,24 +3325,24 @@
         <v>8</v>
       </c>
       <c r="O92" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P92" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>2</v>
@@ -3350,7 +3354,7 @@
         <v>7</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M93" s="16" t="s">
         <v>2</v>
@@ -3362,10 +3366,10 @@
         <v>7</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D94" s="7"/>
       <c r="E94" s="7">
         <v>2</v>
@@ -3381,7 +3385,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M94" s="16"/>
       <c r="N94" s="16">
@@ -3391,59 +3395,51 @@
         <v>2</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F95" s="7"/>
       <c r="H95" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M95" s="16" t="s">
-        <v>2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M95" s="16"/>
       <c r="N95" s="16"/>
       <c r="O95" s="16"/>
-      <c r="P95" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P95" s="16"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="E99" s="28"/>
+      <c r="F99" s="29"/>
+      <c r="H99" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E99" s="21"/>
-      <c r="F99" s="22"/>
-      <c r="H99" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="19"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="26"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
@@ -3457,19 +3453,19 @@
         <v>0</v>
       </c>
       <c r="H100" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I100" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J100" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D101" s="7" t="s">
         <v>4</v>
       </c>
@@ -3492,9 +3488,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>2</v>
@@ -3515,10 +3511,10 @@
         <v>2</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>12</v>
       </c>
@@ -3537,10 +3533,10 @@
         <v>2</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D104" s="7" t="s">
         <v>2</v>
       </c>
@@ -3554,42 +3550,42 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D106" s="20" t="s">
+      <c r="E106" s="28"/>
+      <c r="F106" s="29"/>
+      <c r="H106" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E106" s="21"/>
-      <c r="F106" s="22"/>
-      <c r="H106" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="19"/>
-      <c r="M106" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="N106" s="24"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="24"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="26"/>
+      <c r="M106" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="N106" s="31"/>
+      <c r="O106" s="31"/>
+      <c r="P106" s="31"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D107" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>0</v>
@@ -3598,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>7</v>
@@ -3613,15 +3609,15 @@
         <v>7</v>
       </c>
       <c r="O107" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P107" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>4</v>
@@ -3636,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>8</v>
@@ -3651,24 +3647,24 @@
         <v>8</v>
       </c>
       <c r="O108" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P108" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>2</v>
@@ -3680,7 +3676,7 @@
         <v>7</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M109" s="16" t="s">
         <v>2</v>
@@ -3692,10 +3688,10 @@
         <v>7</v>
       </c>
       <c r="P109" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7">
@@ -3712,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M110" s="16"/>
       <c r="N110" s="16">
@@ -3722,12 +3718,12 @@
         <v>2</v>
       </c>
       <c r="P110" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>2</v>
@@ -3742,12 +3738,12 @@
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -3757,7 +3753,7 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -3767,26 +3763,26 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="E115" s="28"/>
+      <c r="F115" s="29"/>
+      <c r="H115" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E115" s="21"/>
-      <c r="F115" s="22"/>
-      <c r="H115" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="19"/>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="26"/>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>6</v>
       </c>
@@ -3800,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="H116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I116" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J116" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K116" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D117" s="7" t="s">
         <v>4</v>
       </c>
@@ -3835,9 +3831,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>2</v>
@@ -3858,10 +3854,10 @@
         <v>2</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>12</v>
       </c>
@@ -3869,7 +3865,7 @@
       <c r="E119" s="7">
         <v>2</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="19">
         <v>2</v>
       </c>
       <c r="H119" s="7"/>
@@ -3880,65 +3876,65 @@
         <v>2</v>
       </c>
       <c r="K119" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D120" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" s="7">
+        <v>1</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H120" s="7">
+        <v>1</v>
+      </c>
+      <c r="I120" s="7">
+        <v>2</v>
+      </c>
+      <c r="J120" s="7">
+        <v>4</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D120" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E120" s="7">
-        <v>1</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H120" s="7">
-        <v>1</v>
-      </c>
-      <c r="I120" s="7">
-        <v>2</v>
-      </c>
-      <c r="J120" s="7">
-        <v>4</v>
-      </c>
-      <c r="K120" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E122" s="28"/>
+      <c r="F122" s="29"/>
+      <c r="H122" s="24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B122" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E122" s="21"/>
-      <c r="F122" s="22"/>
-      <c r="H122" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="19"/>
-      <c r="M122" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="N122" s="24"/>
-      <c r="O122" s="24"/>
-      <c r="P122" s="24"/>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="26"/>
+      <c r="M122" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="N122" s="31"/>
+      <c r="O122" s="31"/>
+      <c r="P122" s="31"/>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D123" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>0</v>
@@ -3947,7 +3943,7 @@
         <v>3</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J123" s="7" t="s">
         <v>7</v>
@@ -3962,15 +3958,15 @@
         <v>7</v>
       </c>
       <c r="O123" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P123" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>4</v>
@@ -3985,7 +3981,7 @@
         <v>4</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J124" s="7" t="s">
         <v>8</v>
@@ -4000,24 +3996,24 @@
         <v>8</v>
       </c>
       <c r="O124" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P124" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>2</v>
@@ -4029,7 +4025,7 @@
         <v>7</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M125" s="16" t="s">
         <v>2</v>
@@ -4041,16 +4037,16 @@
         <v>7</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D126" s="7"/>
-      <c r="E126" s="7">
-        <v>2</v>
-      </c>
-      <c r="F126" s="7">
-        <v>2</v>
+      <c r="E126" s="19">
+        <v>2</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7">
@@ -4060,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M126" s="16"/>
       <c r="N126" s="16">
@@ -4070,51 +4066,47 @@
         <v>2</v>
       </c>
       <c r="P126" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D127" s="7"/>
       <c r="E127" s="7"/>
-      <c r="F127" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F127" s="20"/>
       <c r="H127" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D131" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D131" s="20" t="s">
+      <c r="E131" s="28"/>
+      <c r="F131" s="29"/>
+      <c r="H131" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E131" s="21"/>
-      <c r="F131" s="22"/>
-      <c r="H131" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="19"/>
-    </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="26"/>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>6</v>
       </c>
@@ -4128,19 +4120,19 @@
         <v>0</v>
       </c>
       <c r="H132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I132" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J132" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K132" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D133" s="7" t="s">
         <v>4</v>
       </c>
@@ -4163,9 +4155,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>2</v>
@@ -4186,10 +4178,10 @@
         <v>2</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>12</v>
       </c>
@@ -4208,10 +4200,10 @@
         <v>2</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D136" s="7" t="s">
         <v>2</v>
       </c>
@@ -4225,42 +4217,42 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B138" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D138" s="20" t="s">
+      <c r="E138" s="28"/>
+      <c r="F138" s="29"/>
+      <c r="H138" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E138" s="21"/>
-      <c r="F138" s="22"/>
-      <c r="H138" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="19"/>
-      <c r="M138" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="N138" s="24"/>
-      <c r="O138" s="24"/>
-      <c r="P138" s="24"/>
-    </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
+      <c r="K138" s="26"/>
+      <c r="M138" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="N138" s="31"/>
+      <c r="O138" s="31"/>
+      <c r="P138" s="31"/>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D139" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>0</v>
@@ -4269,7 +4261,7 @@
         <v>3</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>7</v>
@@ -4284,15 +4276,15 @@
         <v>7</v>
       </c>
       <c r="O139" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P139" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>4</v>
@@ -4307,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J140" s="7" t="s">
         <v>8</v>
@@ -4322,24 +4314,24 @@
         <v>8</v>
       </c>
       <c r="O140" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P140" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>2</v>
@@ -4351,7 +4343,7 @@
         <v>7</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M141" s="16" t="s">
         <v>2</v>
@@ -4363,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7">
@@ -4383,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M142" s="16"/>
       <c r="N142" s="16">
@@ -4393,12 +4385,12 @@
         <v>2</v>
       </c>
       <c r="P142" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>2</v>
@@ -4413,12 +4405,12 @@
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -4428,26 +4420,26 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D146" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D146" s="20" t="s">
+      <c r="E146" s="28"/>
+      <c r="F146" s="29"/>
+      <c r="H146" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E146" s="21"/>
-      <c r="F146" s="22"/>
-      <c r="H146" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="19"/>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="26"/>
+    </row>
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>6</v>
       </c>
@@ -4461,19 +4453,19 @@
         <v>0</v>
       </c>
       <c r="H147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I147" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J147" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K147" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D148" s="7" t="s">
         <v>4</v>
       </c>
@@ -4496,9 +4488,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>2</v>
@@ -4519,10 +4511,10 @@
         <v>2</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>12</v>
       </c>
@@ -4541,65 +4533,65 @@
         <v>2</v>
       </c>
       <c r="K150" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D151" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E151" s="7">
+        <v>1</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H151" s="7">
+        <v>1</v>
+      </c>
+      <c r="I151" s="7">
+        <v>2</v>
+      </c>
+      <c r="J151" s="7">
+        <v>4</v>
+      </c>
+      <c r="K151" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D151" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E151" s="7">
-        <v>1</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H151" s="7">
-        <v>1</v>
-      </c>
-      <c r="I151" s="7">
-        <v>2</v>
-      </c>
-      <c r="J151" s="7">
-        <v>4</v>
-      </c>
-      <c r="K151" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B153" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" s="20" t="s">
+      <c r="E153" s="28"/>
+      <c r="F153" s="29"/>
+      <c r="H153" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E153" s="21"/>
-      <c r="F153" s="22"/>
-      <c r="H153" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I153" s="18"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="19"/>
-      <c r="M153" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="N153" s="24"/>
-      <c r="O153" s="24"/>
-      <c r="P153" s="24"/>
-    </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="26"/>
+      <c r="M153" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="N153" s="31"/>
+      <c r="O153" s="31"/>
+      <c r="P153" s="31"/>
+    </row>
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D154" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>0</v>
@@ -4608,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="I154" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J154" s="7" t="s">
         <v>7</v>
@@ -4623,15 +4615,15 @@
         <v>7</v>
       </c>
       <c r="O154" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P154" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>4</v>
@@ -4646,7 +4638,7 @@
         <v>4</v>
       </c>
       <c r="I155" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J155" s="7" t="s">
         <v>8</v>
@@ -4661,24 +4653,24 @@
         <v>8</v>
       </c>
       <c r="O155" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P155" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>2</v>
@@ -4690,7 +4682,7 @@
         <v>7</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M156" s="16" t="s">
         <v>2</v>
@@ -4702,10 +4694,10 @@
         <v>7</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D157" s="7"/>
       <c r="E157" s="7">
         <v>2</v>
@@ -4721,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M157" s="16"/>
       <c r="N157" s="16">
@@ -4731,51 +4723,47 @@
         <v>2</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D158" s="7"/>
       <c r="E158" s="7"/>
-      <c r="F158" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F158" s="7"/>
       <c r="H158" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D162" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D162" s="20" t="s">
+      <c r="E162" s="28"/>
+      <c r="F162" s="29"/>
+      <c r="H162" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E162" s="21"/>
-      <c r="F162" s="22"/>
-      <c r="H162" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="I162" s="18"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="19"/>
-    </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="26"/>
+    </row>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>6</v>
       </c>
@@ -4789,19 +4777,19 @@
         <v>0</v>
       </c>
       <c r="H163" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I163" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I163" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J163" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K163" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D164" s="7" t="s">
         <v>4</v>
       </c>
@@ -4824,9 +4812,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>2</v>
@@ -4847,10 +4835,10 @@
         <v>2</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>12</v>
       </c>
@@ -4869,10 +4857,10 @@
         <v>2</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D167" s="7" t="s">
         <v>2</v>
       </c>
@@ -4886,42 +4874,42 @@
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B169" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D169" s="20" t="s">
+      <c r="E169" s="28"/>
+      <c r="F169" s="29"/>
+      <c r="H169" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E169" s="21"/>
-      <c r="F169" s="22"/>
-      <c r="H169" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I169" s="18"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="19"/>
-      <c r="M169" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="N169" s="24"/>
-      <c r="O169" s="24"/>
-      <c r="P169" s="24"/>
-    </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I169" s="25"/>
+      <c r="J169" s="25"/>
+      <c r="K169" s="26"/>
+      <c r="M169" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="N169" s="31"/>
+      <c r="O169" s="31"/>
+      <c r="P169" s="31"/>
+    </row>
+    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D170" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>0</v>
@@ -4930,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="I170" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J170" s="7" t="s">
         <v>7</v>
@@ -4945,15 +4933,15 @@
         <v>7</v>
       </c>
       <c r="O170" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P170" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>4</v>
@@ -4968,7 +4956,7 @@
         <v>4</v>
       </c>
       <c r="I171" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J171" s="7" t="s">
         <v>8</v>
@@ -4983,24 +4971,24 @@
         <v>8</v>
       </c>
       <c r="O171" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P171" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>2</v>
@@ -5012,7 +5000,7 @@
         <v>7</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M172" s="16" t="s">
         <v>2</v>
@@ -5024,10 +5012,10 @@
         <v>7</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7">
@@ -5044,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M173" s="16"/>
       <c r="N173" s="16">
@@ -5054,12 +5042,12 @@
         <v>2</v>
       </c>
       <c r="P173" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>2</v>
@@ -5074,7 +5062,7 @@
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M174" s="16" t="s">
         <v>2</v>
@@ -5082,12 +5070,12 @@
       <c r="N174" s="16"/>
       <c r="O174" s="16"/>
       <c r="P174" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -5097,26 +5085,26 @@
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D177" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D177" s="20" t="s">
+      <c r="E177" s="28"/>
+      <c r="F177" s="29"/>
+      <c r="H177" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E177" s="21"/>
-      <c r="F177" s="22"/>
-      <c r="H177" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I177" s="18"/>
-      <c r="J177" s="18"/>
-      <c r="K177" s="19"/>
-    </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I177" s="25"/>
+      <c r="J177" s="25"/>
+      <c r="K177" s="26"/>
+    </row>
+    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>6</v>
       </c>
@@ -5130,19 +5118,19 @@
         <v>0</v>
       </c>
       <c r="H178" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I178" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I178" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J178" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K178" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D179" s="7" t="s">
         <v>4</v>
       </c>
@@ -5165,9 +5153,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>2</v>
@@ -5188,10 +5176,10 @@
         <v>2</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>12</v>
       </c>
@@ -5210,65 +5198,65 @@
         <v>2</v>
       </c>
       <c r="K181" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="182" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D182" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E182" s="7">
+        <v>1</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H182" s="7">
+        <v>1</v>
+      </c>
+      <c r="I182" s="7">
+        <v>2</v>
+      </c>
+      <c r="J182" s="7">
+        <v>4</v>
+      </c>
+      <c r="K182" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D182" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E182" s="7">
-        <v>1</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H182" s="7">
-        <v>1</v>
-      </c>
-      <c r="I182" s="7">
-        <v>2</v>
-      </c>
-      <c r="J182" s="7">
-        <v>4</v>
-      </c>
-      <c r="K182" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E184" s="28"/>
+      <c r="F184" s="29"/>
+      <c r="H184" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B184" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D184" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E184" s="21"/>
-      <c r="F184" s="22"/>
-      <c r="H184" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I184" s="18"/>
-      <c r="J184" s="18"/>
-      <c r="K184" s="19"/>
-      <c r="M184" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="N184" s="24"/>
-      <c r="O184" s="24"/>
-      <c r="P184" s="24"/>
-    </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I184" s="25"/>
+      <c r="J184" s="25"/>
+      <c r="K184" s="26"/>
+      <c r="M184" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="N184" s="31"/>
+      <c r="O184" s="31"/>
+      <c r="P184" s="31"/>
+    </row>
+    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D185" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F185" s="7" t="s">
         <v>0</v>
@@ -5277,7 +5265,7 @@
         <v>3</v>
       </c>
       <c r="I185" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J185" s="7" t="s">
         <v>7</v>
@@ -5292,15 +5280,15 @@
         <v>7</v>
       </c>
       <c r="O185" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P185" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>4</v>
@@ -5315,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="I186" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J186" s="7" t="s">
         <v>8</v>
@@ -5330,24 +5318,24 @@
         <v>8</v>
       </c>
       <c r="O186" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P186" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H187" s="7" t="s">
         <v>2</v>
@@ -5359,7 +5347,7 @@
         <v>7</v>
       </c>
       <c r="K187" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M187" s="16" t="s">
         <v>2</v>
@@ -5371,10 +5359,10 @@
         <v>7</v>
       </c>
       <c r="P187" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D188" s="7"/>
       <c r="E188" s="7">
         <v>2</v>
@@ -5390,7 +5378,7 @@
         <v>2</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M188" s="16"/>
       <c r="N188" s="16">
@@ -5400,51 +5388,47 @@
         <v>2</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="189" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D189" s="7"/>
       <c r="E189" s="7"/>
-      <c r="F189" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F189" s="7"/>
       <c r="H189" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D193" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D193" s="20" t="s">
+      <c r="E193" s="28"/>
+      <c r="F193" s="29"/>
+      <c r="H193" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E193" s="21"/>
-      <c r="F193" s="22"/>
-      <c r="H193" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="I193" s="18"/>
-      <c r="J193" s="18"/>
-      <c r="K193" s="19"/>
-    </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I193" s="25"/>
+      <c r="J193" s="25"/>
+      <c r="K193" s="26"/>
+    </row>
+    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>6</v>
       </c>
@@ -5458,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="H194" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I194" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I194" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J194" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K194" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D195" s="7" t="s">
         <v>4</v>
       </c>
@@ -5493,9 +5477,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>2</v>
@@ -5516,22 +5500,24 @@
         <v>2</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7">
-        <v>2</v>
-      </c>
-      <c r="F197" s="7">
-        <v>2</v>
+      <c r="D197" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E197" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F197" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I197" s="7">
         <v>2</v>
@@ -5540,63 +5526,55 @@
         <v>2</v>
       </c>
       <c r="K197" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D198" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>183</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
       <c r="H198" s="7">
         <v>1</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K198" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" s="27" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B200" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D200" s="20" t="s">
+      <c r="E200" s="28"/>
+      <c r="F200" s="29"/>
+      <c r="H200" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E200" s="21"/>
-      <c r="F200" s="22"/>
-      <c r="H200" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="I200" s="18"/>
-      <c r="J200" s="18"/>
-      <c r="K200" s="19"/>
-      <c r="M200" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="N200" s="24"/>
-      <c r="O200" s="24"/>
-      <c r="P200" s="24"/>
-    </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I200" s="25"/>
+      <c r="J200" s="25"/>
+      <c r="K200" s="26"/>
+      <c r="M200" s="31"/>
+      <c r="N200" s="31"/>
+      <c r="O200" s="31"/>
+      <c r="P200" s="31"/>
+    </row>
+    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D201" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F201" s="7" t="s">
         <v>0</v>
@@ -5605,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="I201" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J201" s="7" t="s">
         <v>7</v>
@@ -5613,22 +5591,14 @@
       <c r="K201" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M201" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N201" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O201" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P201" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M201" s="16"/>
+      <c r="N201" s="16"/>
+      <c r="O201" s="16"/>
+      <c r="P201" s="16"/>
+    </row>
+    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>4</v>
@@ -5643,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="I202" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J202" s="7" t="s">
         <v>8</v>
@@ -5651,31 +5621,23 @@
       <c r="K202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M202" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="N202" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="O202" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="P202" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M202" s="16"/>
+      <c r="N202" s="16"/>
+      <c r="O202" s="16"/>
+      <c r="P202" s="16"/>
+    </row>
+    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H203" s="7" t="s">
         <v>2</v>
@@ -5687,27 +5649,23 @@
         <v>7</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M203" s="16"/>
-      <c r="N203" s="16">
-        <v>0</v>
-      </c>
-      <c r="O203" s="16">
-        <v>2</v>
-      </c>
-      <c r="P203" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="M203" s="23"/>
+      <c r="N203" s="23"/>
+      <c r="O203" s="23"/>
+      <c r="P203" s="23"/>
+    </row>
+    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7">
-        <v>2</v>
-      </c>
-      <c r="F204" s="7">
-        <v>2</v>
+      <c r="D204" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E204" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F204" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="H204" s="7">
         <v>1</v>
@@ -5719,30 +5677,22 @@
         <v>2</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M204" s="16" t="s">
-        <v>2</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M204" s="16"/>
       <c r="N204" s="16"/>
       <c r="O204" s="16"/>
-      <c r="P204" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P204" s="16"/>
+    </row>
+    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
       <c r="H205" s="7" t="s">
         <v>2</v>
       </c>
@@ -5753,12 +5703,12 @@
         <v>1</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -5768,26 +5718,26 @@
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D208" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D208" s="20" t="s">
+      <c r="E208" s="28"/>
+      <c r="F208" s="29"/>
+      <c r="H208" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E208" s="21"/>
-      <c r="F208" s="22"/>
-      <c r="H208" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="I208" s="18"/>
-      <c r="J208" s="18"/>
-      <c r="K208" s="19"/>
-    </row>
-    <row r="209" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I208" s="25"/>
+      <c r="J208" s="25"/>
+      <c r="K208" s="26"/>
+    </row>
+    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
         <v>6</v>
       </c>
@@ -5801,19 +5751,19 @@
         <v>0</v>
       </c>
       <c r="H209" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I209" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I209" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J209" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K209" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D210" s="7" t="s">
         <v>4</v>
       </c>
@@ -5836,9 +5786,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>2</v>
@@ -5859,10 +5809,10 @@
         <v>2</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="212" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>12</v>
       </c>
@@ -5881,65 +5831,65 @@
         <v>2</v>
       </c>
       <c r="K212" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D213" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E213" s="7">
+        <v>1</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H213" s="7">
+        <v>1</v>
+      </c>
+      <c r="I213" s="7">
+        <v>2</v>
+      </c>
+      <c r="J213" s="7">
+        <v>4</v>
+      </c>
+      <c r="K213" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D213" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E213" s="7">
-        <v>1</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H213" s="7">
-        <v>1</v>
-      </c>
-      <c r="I213" s="7">
-        <v>2</v>
-      </c>
-      <c r="J213" s="7">
-        <v>4</v>
-      </c>
-      <c r="K213" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="214" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215" s="27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="215" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B215" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D215" s="20" t="s">
+      <c r="E215" s="28"/>
+      <c r="F215" s="29"/>
+      <c r="H215" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E215" s="21"/>
-      <c r="F215" s="22"/>
-      <c r="H215" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I215" s="18"/>
-      <c r="J215" s="18"/>
-      <c r="K215" s="19"/>
-      <c r="M215" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="N215" s="24"/>
-      <c r="O215" s="24"/>
-      <c r="P215" s="24"/>
-    </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I215" s="25"/>
+      <c r="J215" s="25"/>
+      <c r="K215" s="26"/>
+      <c r="M215" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N215" s="31"/>
+      <c r="O215" s="31"/>
+      <c r="P215" s="31"/>
+    </row>
+    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D216" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>0</v>
@@ -5948,7 +5898,7 @@
         <v>3</v>
       </c>
       <c r="I216" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J216" s="7" t="s">
         <v>7</v>
@@ -5963,15 +5913,15 @@
         <v>7</v>
       </c>
       <c r="O216" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P216" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>4</v>
@@ -5986,7 +5936,7 @@
         <v>4</v>
       </c>
       <c r="I217" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J217" s="7" t="s">
         <v>8</v>
@@ -6001,24 +5951,24 @@
         <v>8</v>
       </c>
       <c r="O217" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P217" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H218" s="7" t="s">
         <v>2</v>
@@ -6030,7 +5980,7 @@
         <v>7</v>
       </c>
       <c r="K218" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M218" s="16"/>
       <c r="N218" s="16">
@@ -6040,10 +5990,10 @@
         <v>2</v>
       </c>
       <c r="P218" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="219" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D219" s="7"/>
       <c r="E219" s="7">
         <v>2</v>
@@ -6059,59 +6009,51 @@
         <v>2</v>
       </c>
       <c r="K219" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M219" s="16" t="s">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M219" s="16"/>
       <c r="N219" s="16"/>
       <c r="O219" s="16"/>
-      <c r="P219" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="220" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P219" s="16"/>
+    </row>
+    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D220" s="7"/>
       <c r="E220" s="7"/>
-      <c r="F220" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F220" s="7"/>
       <c r="H220" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="221" spans="2:16" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="224" spans="2:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D224" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D224" s="20" t="s">
+      <c r="E224" s="28"/>
+      <c r="F224" s="29"/>
+      <c r="H224" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E224" s="21"/>
-      <c r="F224" s="22"/>
-      <c r="H224" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I224" s="18"/>
-      <c r="J224" s="18"/>
-      <c r="K224" s="19"/>
-    </row>
-    <row r="225" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I224" s="25"/>
+      <c r="J224" s="25"/>
+      <c r="K224" s="26"/>
+    </row>
+    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>6</v>
       </c>
@@ -6125,19 +6067,19 @@
         <v>0</v>
       </c>
       <c r="H225" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I225" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I225" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J225" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K225" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D226" s="7" t="s">
         <v>4</v>
       </c>
@@ -6160,9 +6102,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>2</v>
@@ -6183,10 +6125,10 @@
         <v>2</v>
       </c>
       <c r="K227" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="228" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>12</v>
       </c>
@@ -6205,65 +6147,65 @@
         <v>2</v>
       </c>
       <c r="K228" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D229" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E229" s="7">
+        <v>1</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H229" s="7">
+        <v>1</v>
+      </c>
+      <c r="I229" s="7">
+        <v>2</v>
+      </c>
+      <c r="J229" s="7">
+        <v>4</v>
+      </c>
+      <c r="K229" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D229" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E229" s="7">
-        <v>1</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H229" s="7">
-        <v>1</v>
-      </c>
-      <c r="I229" s="7">
-        <v>2</v>
-      </c>
-      <c r="J229" s="7">
-        <v>4</v>
-      </c>
-      <c r="K229" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="230" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E231" s="28"/>
+      <c r="F231" s="29"/>
+      <c r="H231" s="24" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="231" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B231" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D231" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E231" s="21"/>
-      <c r="F231" s="22"/>
-      <c r="H231" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="I231" s="18"/>
-      <c r="J231" s="18"/>
-      <c r="K231" s="19"/>
-      <c r="M231" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="N231" s="24"/>
-      <c r="O231" s="24"/>
-      <c r="P231" s="24"/>
-    </row>
-    <row r="232" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I231" s="25"/>
+      <c r="J231" s="25"/>
+      <c r="K231" s="26"/>
+      <c r="M231" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="N231" s="31"/>
+      <c r="O231" s="31"/>
+      <c r="P231" s="31"/>
+    </row>
+    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D232" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F232" s="7" t="s">
         <v>0</v>
@@ -6272,7 +6214,7 @@
         <v>3</v>
       </c>
       <c r="I232" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J232" s="7" t="s">
         <v>7</v>
@@ -6287,15 +6229,15 @@
         <v>7</v>
       </c>
       <c r="O232" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P232" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>4</v>
@@ -6310,7 +6252,7 @@
         <v>4</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J233" s="7" t="s">
         <v>8</v>
@@ -6325,24 +6267,24 @@
         <v>8</v>
       </c>
       <c r="O233" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P233" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H234" s="7" t="s">
         <v>2</v>
@@ -6354,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="K234" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M234" s="16" t="s">
         <v>2</v>
@@ -6366,10 +6308,10 @@
         <v>7</v>
       </c>
       <c r="P234" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="235" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D235" s="7"/>
       <c r="E235" s="7">
         <v>2</v>
@@ -6385,7 +6327,7 @@
         <v>2</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M235" s="16"/>
       <c r="N235" s="16">
@@ -6395,51 +6337,47 @@
         <v>2</v>
       </c>
       <c r="P235" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="236" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D236" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D236" s="7"/>
       <c r="E236" s="7"/>
-      <c r="F236" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F236" s="7"/>
       <c r="H236" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="237" spans="2:16" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="237" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="240" spans="2:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="240" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D240" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D240" s="20" t="s">
+      <c r="E240" s="28"/>
+      <c r="F240" s="29"/>
+      <c r="H240" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E240" s="21"/>
-      <c r="F240" s="22"/>
-      <c r="H240" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="I240" s="18"/>
-      <c r="J240" s="18"/>
-      <c r="K240" s="19"/>
-    </row>
-    <row r="241" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I240" s="25"/>
+      <c r="J240" s="25"/>
+      <c r="K240" s="26"/>
+    </row>
+    <row r="241" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>6</v>
       </c>
@@ -6453,19 +6391,19 @@
         <v>0</v>
       </c>
       <c r="H241" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I241" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I241" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J241" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K241" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D242" s="7" t="s">
         <v>4</v>
       </c>
@@ -6488,9 +6426,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D243" s="7" t="s">
         <v>2</v>
@@ -6511,10 +6449,10 @@
         <v>2</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="244" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>12</v>
       </c>
@@ -6533,65 +6471,65 @@
         <v>2</v>
       </c>
       <c r="K244" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D245" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E245" s="7">
+        <v>1</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H245" s="7">
+        <v>1</v>
+      </c>
+      <c r="I245" s="7">
+        <v>2</v>
+      </c>
+      <c r="J245" s="7">
+        <v>4</v>
+      </c>
+      <c r="K245" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D245" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E245" s="7">
-        <v>1</v>
-      </c>
-      <c r="F245" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H245" s="7">
-        <v>1</v>
-      </c>
-      <c r="I245" s="7">
-        <v>2</v>
-      </c>
-      <c r="J245" s="7">
-        <v>4</v>
-      </c>
-      <c r="K245" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="246" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="247" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D247" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E247" s="28"/>
+      <c r="F247" s="29"/>
+      <c r="H247" s="24" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="247" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B247" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D247" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E247" s="21"/>
-      <c r="F247" s="22"/>
-      <c r="H247" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I247" s="18"/>
-      <c r="J247" s="18"/>
-      <c r="K247" s="19"/>
-      <c r="M247" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="N247" s="24"/>
-      <c r="O247" s="24"/>
-      <c r="P247" s="24"/>
-    </row>
-    <row r="248" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I247" s="25"/>
+      <c r="J247" s="25"/>
+      <c r="K247" s="26"/>
+      <c r="M247" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="N247" s="31"/>
+      <c r="O247" s="31"/>
+      <c r="P247" s="31"/>
+    </row>
+    <row r="248" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D248" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F248" s="7" t="s">
         <v>0</v>
@@ -6600,7 +6538,7 @@
         <v>3</v>
       </c>
       <c r="I248" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>7</v>
@@ -6615,15 +6553,15 @@
         <v>7</v>
       </c>
       <c r="O248" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P248" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D249" s="7" t="s">
         <v>4</v>
@@ -6638,7 +6576,7 @@
         <v>4</v>
       </c>
       <c r="I249" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J249" s="7" t="s">
         <v>8</v>
@@ -6653,24 +6591,24 @@
         <v>8</v>
       </c>
       <c r="O249" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P249" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D250" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H250" s="7" t="s">
         <v>2</v>
@@ -6682,7 +6620,7 @@
         <v>7</v>
       </c>
       <c r="K250" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M250" s="16" t="s">
         <v>2</v>
@@ -6694,10 +6632,10 @@
         <v>7</v>
       </c>
       <c r="P250" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="251" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D251" s="7"/>
       <c r="E251" s="7">
         <v>2</v>
@@ -6713,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="K251" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M251" s="16"/>
       <c r="N251" s="16">
@@ -6723,51 +6661,47 @@
         <v>2</v>
       </c>
       <c r="P251" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="252" spans="2:16" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="252" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D252" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D252" s="7"/>
       <c r="E252" s="7"/>
-      <c r="F252" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F252" s="7"/>
       <c r="H252" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
       <c r="K252" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="253" spans="2:16" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="253" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="256" spans="2:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="256" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D256" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D256" s="20" t="s">
+      <c r="E256" s="28"/>
+      <c r="F256" s="29"/>
+      <c r="H256" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="E256" s="21"/>
-      <c r="F256" s="22"/>
-      <c r="H256" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="I256" s="18"/>
-      <c r="J256" s="18"/>
-      <c r="K256" s="19"/>
-    </row>
-    <row r="257" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I256" s="25"/>
+      <c r="J256" s="25"/>
+      <c r="K256" s="26"/>
+    </row>
+    <row r="257" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
         <v>6</v>
       </c>
@@ -6781,19 +6715,19 @@
         <v>0</v>
       </c>
       <c r="H257" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I257" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I257" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J257" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K257" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D258" s="7" t="s">
         <v>4</v>
       </c>
@@ -6816,9 +6750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>2</v>
@@ -6839,10 +6773,10 @@
         <v>2</v>
       </c>
       <c r="K259" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="260" spans="2:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
         <v>12</v>
       </c>
@@ -6861,65 +6795,65 @@
         <v>2</v>
       </c>
       <c r="K260" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="261" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D261" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E261" s="7">
+        <v>1</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H261" s="7">
+        <v>1</v>
+      </c>
+      <c r="I261" s="7">
+        <v>2</v>
+      </c>
+      <c r="J261" s="7">
+        <v>4</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="261" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D261" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E261" s="7">
-        <v>1</v>
-      </c>
-      <c r="F261" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H261" s="7">
-        <v>1</v>
-      </c>
-      <c r="I261" s="7">
-        <v>2</v>
-      </c>
-      <c r="J261" s="7">
-        <v>4</v>
-      </c>
-      <c r="K261" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="262" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="263" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D263" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E263" s="28"/>
+      <c r="F263" s="29"/>
+      <c r="H263" s="24" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="263" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B263" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D263" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E263" s="21"/>
-      <c r="F263" s="22"/>
-      <c r="H263" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="I263" s="18"/>
-      <c r="J263" s="18"/>
-      <c r="K263" s="19"/>
-      <c r="M263" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="N263" s="24"/>
-      <c r="O263" s="24"/>
-      <c r="P263" s="24"/>
-    </row>
-    <row r="264" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I263" s="25"/>
+      <c r="J263" s="25"/>
+      <c r="K263" s="26"/>
+      <c r="M263" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N263" s="31"/>
+      <c r="O263" s="31"/>
+      <c r="P263" s="31"/>
+    </row>
+    <row r="264" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D264" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F264" s="7" t="s">
         <v>0</v>
@@ -6928,7 +6862,7 @@
         <v>3</v>
       </c>
       <c r="I264" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J264" s="7" t="s">
         <v>7</v>
@@ -6943,15 +6877,15 @@
         <v>7</v>
       </c>
       <c r="O264" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P264" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D265" s="7" t="s">
         <v>4</v>
@@ -6966,7 +6900,7 @@
         <v>4</v>
       </c>
       <c r="I265" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J265" s="7" t="s">
         <v>8</v>
@@ -6981,24 +6915,24 @@
         <v>8</v>
       </c>
       <c r="O265" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P265" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D266" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H266" s="7" t="s">
         <v>2</v>
@@ -7010,7 +6944,7 @@
         <v>7</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M266" s="16" t="s">
         <v>2</v>
@@ -7022,10 +6956,10 @@
         <v>7</v>
       </c>
       <c r="P266" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="267" spans="2:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D267" s="7"/>
       <c r="E267" s="7">
         <v>2</v>
@@ -7041,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="K267" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M267" s="16"/>
       <c r="N267" s="16">
@@ -7051,50 +6985,46 @@
         <v>2</v>
       </c>
       <c r="P267" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="268" spans="2:16" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="268" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D268" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D268" s="7"/>
       <c r="E268" s="7"/>
-      <c r="F268" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F268" s="7"/>
       <c r="H268" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
       <c r="K268" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="269" spans="2:16" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="269" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="272" spans="2:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="272" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D272" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D272" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E272" s="21"/>
-      <c r="F272" s="22"/>
-      <c r="I272" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="J272" s="21"/>
-      <c r="K272" s="22"/>
-    </row>
-    <row r="273" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E272" s="28"/>
+      <c r="F272" s="29"/>
+      <c r="I272" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J272" s="28"/>
+      <c r="K272" s="29"/>
+    </row>
+    <row r="273" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
         <v>6</v>
       </c>
@@ -7105,207 +7035,207 @@
         <v>7</v>
       </c>
       <c r="F273" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G273" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I273" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J273" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K273" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L273" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M273" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N273" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="274" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D274" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G274" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I274" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J274" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K274" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L274" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M274" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N274" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I275" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J275" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G273" s="8" t="s">
+      <c r="K275" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I273" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J273" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K273" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L273" s="8" t="s">
+      <c r="L275" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="M275" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="M273" s="8" t="s">
+      <c r="N275" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="N273" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="274" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D274" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E274" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F274" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G274" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I274" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J274" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K274" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L274" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M274" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N274" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B275" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F275" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G275" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I275" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J275" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K275" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="L275" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="M275" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="N275" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="276" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G276" s="6"/>
       <c r="I276" s="9"/>
       <c r="J276" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K276" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L276" s="8"/>
       <c r="M276" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N276" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="277" spans="2:21" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="277" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D277" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E277" s="9"/>
       <c r="F277" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G277" s="6"/>
       <c r="I277" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J277" s="9"/>
       <c r="K277" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L277" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M277" s="8"/>
       <c r="N277" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="278" spans="2:21" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="278" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="279" spans="2:21" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="279" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D279" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E279" s="18"/>
-      <c r="F279" s="18"/>
-      <c r="G279" s="19"/>
-      <c r="I279" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="J279" s="21"/>
-      <c r="K279" s="22"/>
-    </row>
-    <row r="280" spans="2:21" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D279" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E279" s="25"/>
+      <c r="F279" s="25"/>
+      <c r="G279" s="26"/>
+      <c r="I279" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J279" s="28"/>
+      <c r="K279" s="29"/>
+    </row>
+    <row r="280" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D280" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G280" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I280" s="8" t="s">
         <v>3</v>
       </c>
       <c r="J280" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K280" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L280" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M280" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="P280" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q280" s="24"/>
-      <c r="R280" s="24"/>
-      <c r="S280" s="24"/>
-    </row>
-    <row r="281" spans="2:21" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="P280" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q280" s="31"/>
+      <c r="R280" s="31"/>
+      <c r="S280" s="31"/>
+    </row>
+    <row r="281" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D281" s="12" t="s">
         <v>4</v>
@@ -7323,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="J281" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K281" s="8" t="s">
         <v>8</v>
@@ -7341,48 +7271,48 @@
         <v>7</v>
       </c>
       <c r="R281" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S281" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="T281" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="U281" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="282" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D282" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E282" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F282" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G282" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I282" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J282" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K282" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="T281" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="U281" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="282" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B282" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D282" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E282" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F282" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G282" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="I282" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J282" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="K282" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="L282" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M282" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P282" s="16" t="s">
         <v>4</v>
@@ -7391,7 +7321,7 @@
         <v>8</v>
       </c>
       <c r="R282" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S282" s="16" t="s">
         <v>1</v>
@@ -7403,160 +7333,160 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D283" s="14"/>
       <c r="E283" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F283" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G283" s="15"/>
       <c r="I283" s="9"/>
       <c r="J283" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K283" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L283" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M283" s="6"/>
       <c r="P283" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q283" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R283" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="S283" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T283" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="U283" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="284" spans="2:21" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="284" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D284" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E284" s="14"/>
       <c r="F284" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G284" s="15"/>
       <c r="I284" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J284" s="9"/>
       <c r="K284" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L284" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M284" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="285" spans="2:21" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="285" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D285" s="25"/>
-      <c r="E285" s="26"/>
-      <c r="F285" s="25"/>
-      <c r="G285" s="25"/>
-      <c r="I285" s="25"/>
-      <c r="J285" s="26"/>
-      <c r="K285" s="25"/>
-      <c r="L285" s="25"/>
-      <c r="M285" s="25"/>
-    </row>
-    <row r="286" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D286" s="25"/>
-      <c r="E286" s="26"/>
-      <c r="F286" s="25"/>
-      <c r="G286" s="25"/>
-      <c r="I286" s="25"/>
-      <c r="J286" s="26"/>
-      <c r="K286" s="25"/>
-      <c r="L286" s="25"/>
-      <c r="M286" s="25"/>
-    </row>
-    <row r="287" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D287" s="25"/>
-      <c r="E287" s="26"/>
-      <c r="F287" s="25"/>
-      <c r="G287" s="25"/>
-      <c r="I287" s="25"/>
-      <c r="J287" s="26"/>
-      <c r="K287" s="25"/>
-      <c r="L287" s="25"/>
-      <c r="M287" s="25"/>
-    </row>
-    <row r="289" spans="2:14" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="D285" s="17"/>
+      <c r="E285" s="18"/>
+      <c r="F285" s="17"/>
+      <c r="G285" s="17"/>
+      <c r="I285" s="17"/>
+      <c r="J285" s="18"/>
+      <c r="K285" s="17"/>
+      <c r="L285" s="17"/>
+      <c r="M285" s="17"/>
+    </row>
+    <row r="286" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D286" s="17"/>
+      <c r="E286" s="18"/>
+      <c r="F286" s="17"/>
+      <c r="G286" s="17"/>
+      <c r="I286" s="17"/>
+      <c r="J286" s="18"/>
+      <c r="K286" s="17"/>
+      <c r="L286" s="17"/>
+      <c r="M286" s="17"/>
+    </row>
+    <row r="287" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D287" s="17"/>
+      <c r="E287" s="18"/>
+      <c r="F287" s="17"/>
+      <c r="G287" s="17"/>
+      <c r="I287" s="17"/>
+      <c r="J287" s="18"/>
+      <c r="K287" s="17"/>
+      <c r="L287" s="17"/>
+      <c r="M287" s="17"/>
+    </row>
+    <row r="289" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D289" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E289" s="18"/>
-      <c r="F289" s="18"/>
-      <c r="G289" s="19"/>
-      <c r="I289" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="J289" s="18"/>
-      <c r="K289" s="18"/>
-      <c r="L289" s="19"/>
-    </row>
-    <row r="290" spans="2:14" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="D289" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E289" s="25"/>
+      <c r="F289" s="25"/>
+      <c r="G289" s="26"/>
+      <c r="I289" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J289" s="25"/>
+      <c r="K289" s="25"/>
+      <c r="L289" s="26"/>
+    </row>
+    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D290" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F290" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G290" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E290" s="12" t="s">
+      <c r="I290" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J290" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="K290" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F290" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G290" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I290" s="11" t="s">
+      <c r="L290" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="M290" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="N290" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="J290" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="K290" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="L290" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="M290" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="N290" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="291" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B291" s="3"/>
       <c r="D291" s="12" t="s">
         <v>4</v>
@@ -7589,163 +7519,163 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D292" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E292" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F292" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I292" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J292" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K292" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L292" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M292" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N292" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="293" spans="2:14" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D293" s="13"/>
       <c r="E293" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F293" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G293" s="13"/>
       <c r="I293" s="9"/>
       <c r="J293" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K293" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L293" s="11"/>
       <c r="M293" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N293" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="294" spans="2:14" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D294" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E294" s="13"/>
       <c r="F294" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G294" s="13"/>
       <c r="I294" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J294" s="9"/>
       <c r="K294" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L294" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M294" s="11"/>
       <c r="N294" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="295" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="296" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B298" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="296" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B296" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="298" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B298" s="1" t="s">
+    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B299" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B301" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D301" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E301" s="25"/>
+      <c r="F301" s="25"/>
+      <c r="G301" s="26"/>
+      <c r="I301" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J301" s="25"/>
+      <c r="K301" s="25"/>
+      <c r="L301" s="25"/>
+      <c r="M301" s="26"/>
+    </row>
+    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B302" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F302" s="12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="299" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B299" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="301" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B301" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D301" s="17" t="s">
+      <c r="G302" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I302" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E301" s="18"/>
-      <c r="F301" s="18"/>
-      <c r="G301" s="19"/>
-      <c r="I301" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="J301" s="18"/>
-      <c r="K301" s="18"/>
-      <c r="L301" s="18"/>
-      <c r="M301" s="19"/>
-    </row>
-    <row r="302" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B302" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D302" s="12" t="s">
+      <c r="J302" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K302" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="L302" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="M302" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E302" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F302" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G302" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I302" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="J302" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K302" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="L302" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="M302" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="303" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D303" s="12" t="s">
         <v>4</v>
       </c>
@@ -7762,7 +7692,7 @@
         <v>4</v>
       </c>
       <c r="J303" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K303" s="12" t="s">
         <v>8</v>
@@ -7774,91 +7704,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D304" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F304" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G304" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J304" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K304" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L304" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M304" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="305" spans="2:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D305" s="13"/>
       <c r="E305" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F305" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G305" s="13"/>
       <c r="I305" s="14"/>
       <c r="J305" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K305" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L305" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M305" s="15"/>
     </row>
-    <row r="306" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D306" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E306" s="13"/>
       <c r="F306" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G306" s="13"/>
       <c r="I306" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J306" s="14"/>
       <c r="K306" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L306" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M306" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="309" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B309" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C309" s="26"/>
+    </row>
+    <row r="310" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B310" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C310" s="10" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="309" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B309" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C309" s="19"/>
-    </row>
-    <row r="310" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B310" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C310" s="10" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7959,6 +7889,7 @@
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="H74:K74"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7972,14 +7903,14 @@
       <selection activeCell="D15" sqref="D15:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -7991,7 +7922,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -8003,7 +7934,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
